--- a/state_results/Lakes/LakeWaipu_c2d77bb10c.xlsx
+++ b/state_results/Lakes/LakeWaipu_c2d77bb10c.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>

--- a/state_results/Lakes/LakeWaipu_c2d77bb10c.xlsx
+++ b/state_results/Lakes/LakeWaipu_c2d77bb10c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="58">
   <si>
     <t>site name</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Lake</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,13 +633,13 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>5.75</v>
       </c>
       <c r="G2">
-        <v>18.3981568064814</v>
+        <v>18.3952543408273</v>
       </c>
       <c r="H2">
         <v>76</v>
@@ -663,19 +666,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -692,13 +695,13 @@
         <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>5.75</v>
       </c>
       <c r="G3">
-        <v>18.3981568064814</v>
+        <v>18.3952543408273</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -725,19 +728,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -754,7 +757,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>2.585</v>
@@ -787,19 +790,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -816,7 +819,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5">
         <v>2.585</v>
@@ -849,19 +852,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -878,7 +881,7 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>0.329</v>
@@ -911,19 +914,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -940,13 +943,13 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>6.2</v>
       </c>
       <c r="G7">
-        <v>19.9530234732876</v>
+        <v>19.9483223242145</v>
       </c>
       <c r="H7">
         <v>76</v>
@@ -973,19 +976,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1002,13 +1005,13 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8">
         <v>6.2</v>
       </c>
       <c r="G8">
-        <v>19.9530234732876</v>
+        <v>19.9483223242145</v>
       </c>
       <c r="H8">
         <v>76</v>
@@ -1035,19 +1038,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1064,13 +1067,13 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9">
         <v>77</v>
       </c>
       <c r="G9">
-        <v>190.27794641962</v>
+        <v>190.22348352127</v>
       </c>
       <c r="H9">
         <v>690</v>
@@ -1085,7 +1088,7 @@
         <v>30</v>
       </c>
       <c r="L9">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="M9">
         <v>473</v>
@@ -1103,19 +1106,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1132,13 +1135,13 @@
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10">
         <v>77</v>
       </c>
       <c r="G10">
-        <v>190.27794641962</v>
+        <v>190.22348352127</v>
       </c>
       <c r="H10">
         <v>690</v>
@@ -1153,7 +1156,7 @@
         <v>30</v>
       </c>
       <c r="L10">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="M10">
         <v>473</v>
@@ -1171,19 +1174,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1200,13 +1203,13 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11">
         <v>77</v>
       </c>
       <c r="G11">
-        <v>190.27794641962</v>
+        <v>190.22348352127</v>
       </c>
       <c r="H11">
         <v>690</v>
@@ -1221,7 +1224,7 @@
         <v>30</v>
       </c>
       <c r="L11">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="M11">
         <v>473</v>
@@ -1239,19 +1242,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1268,13 +1271,13 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12">
         <v>77</v>
       </c>
       <c r="G12">
-        <v>190.27794641962</v>
+        <v>190.22348352127</v>
       </c>
       <c r="H12">
         <v>690</v>
@@ -1289,7 +1292,7 @@
         <v>30</v>
       </c>
       <c r="L12">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="M12">
         <v>473</v>
@@ -1307,19 +1310,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1333,13 +1336,13 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13">
         <v>0.1665</v>
       </c>
       <c r="G13">
-        <v>0.372599771482312</v>
+        <v>0.372207865544276</v>
       </c>
       <c r="H13">
         <v>2.21</v>
@@ -1348,7 +1351,7 @@
         <v>1.4258</v>
       </c>
       <c r="L13">
-        <v>0.03448</v>
+        <v>0.03318</v>
       </c>
       <c r="M13">
         <v>0.6241</v>
@@ -1366,19 +1369,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1395,7 +1398,7 @@
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14">
         <v>2.75</v>
@@ -1428,19 +1431,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1457,7 +1460,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15">
         <v>2.75</v>
@@ -1490,19 +1493,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1519,7 +1522,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16">
         <v>0.401</v>
@@ -1552,19 +1555,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1581,7 +1584,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17">
         <v>0.0296</v>
@@ -1614,19 +1617,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1643,13 +1646,13 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18">
         <v>3.9</v>
       </c>
       <c r="G18">
-        <v>14.4781560586872</v>
+        <v>14.4555861996493</v>
       </c>
       <c r="H18">
         <v>76</v>
@@ -1676,19 +1679,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1705,13 +1708,13 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19">
         <v>3.9</v>
       </c>
       <c r="G19">
-        <v>14.4781560586872</v>
+        <v>14.4555861996493</v>
       </c>
       <c r="H19">
         <v>76</v>
@@ -1738,19 +1741,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1767,19 +1770,19 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20">
-        <v>58</v>
+        <v>58.4</v>
       </c>
       <c r="G20">
-        <v>361.091355974267</v>
+        <v>361.068254985009</v>
       </c>
       <c r="H20">
-        <v>4185</v>
+        <v>4184.8</v>
       </c>
       <c r="I20">
-        <v>1961.05</v>
+        <v>1961.42</v>
       </c>
       <c r="J20">
         <v>20.6896551724138</v>
@@ -1788,7 +1791,7 @@
         <v>34.4827586206897</v>
       </c>
       <c r="L20">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="M20">
         <v>503.8</v>
@@ -1797,7 +1800,7 @@
         <v>561.4</v>
       </c>
       <c r="O20">
-        <v>897.72</v>
+        <v>897.792</v>
       </c>
       <c r="P20">
         <v>1783978.1189</v>
@@ -1806,19 +1809,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1835,19 +1838,19 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21">
-        <v>58</v>
+        <v>58.4</v>
       </c>
       <c r="G21">
-        <v>361.091355974267</v>
+        <v>361.068254985009</v>
       </c>
       <c r="H21">
-        <v>4185</v>
+        <v>4184.8</v>
       </c>
       <c r="I21">
-        <v>1961.05</v>
+        <v>1961.42</v>
       </c>
       <c r="J21">
         <v>20.6896551724138</v>
@@ -1856,7 +1859,7 @@
         <v>34.4827586206897</v>
       </c>
       <c r="L21">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="M21">
         <v>503.8</v>
@@ -1865,7 +1868,7 @@
         <v>561.4</v>
       </c>
       <c r="O21">
-        <v>897.72</v>
+        <v>897.792</v>
       </c>
       <c r="P21">
         <v>1783978.1189</v>
@@ -1874,19 +1877,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1903,19 +1906,19 @@
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22">
-        <v>58</v>
+        <v>58.4</v>
       </c>
       <c r="G22">
-        <v>361.091355974267</v>
+        <v>361.068254985009</v>
       </c>
       <c r="H22">
-        <v>4185</v>
+        <v>4184.8</v>
       </c>
       <c r="I22">
-        <v>1961.05</v>
+        <v>1961.42</v>
       </c>
       <c r="J22">
         <v>20.6896551724138</v>
@@ -1924,7 +1927,7 @@
         <v>34.4827586206897</v>
       </c>
       <c r="L22">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="M22">
         <v>503.8</v>
@@ -1933,7 +1936,7 @@
         <v>561.4</v>
       </c>
       <c r="O22">
-        <v>897.72</v>
+        <v>897.792</v>
       </c>
       <c r="P22">
         <v>1783978.1189</v>
@@ -1942,19 +1945,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1971,19 +1974,19 @@
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23">
-        <v>58</v>
+        <v>58.4</v>
       </c>
       <c r="G23">
-        <v>361.091355974267</v>
+        <v>361.068254985009</v>
       </c>
       <c r="H23">
-        <v>4185</v>
+        <v>4184.8</v>
       </c>
       <c r="I23">
-        <v>1961.05</v>
+        <v>1961.42</v>
       </c>
       <c r="J23">
         <v>20.6896551724138</v>
@@ -1992,7 +1995,7 @@
         <v>34.4827586206897</v>
       </c>
       <c r="L23">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="M23">
         <v>503.8</v>
@@ -2001,7 +2004,7 @@
         <v>561.4</v>
       </c>
       <c r="O23">
-        <v>897.72</v>
+        <v>897.792</v>
       </c>
       <c r="P23">
         <v>1783978.1189</v>
@@ -2010,19 +2013,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2039,7 +2042,7 @@
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24">
         <v>0.28056</v>
@@ -2072,19 +2075,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2101,7 +2104,7 @@
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25">
         <v>0.28056</v>
@@ -2134,19 +2137,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2160,13 +2163,13 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F26">
         <v>0.251</v>
       </c>
       <c r="G26">
-        <v>0.345240983719745</v>
+        <v>0.344745256942342</v>
       </c>
       <c r="H26">
         <v>2.21</v>
@@ -2193,19 +2196,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2219,7 +2222,7 @@
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F27">
         <v>7.235</v>
@@ -2252,16 +2255,16 @@
         <v>5565177.69684</v>
       </c>
       <c r="R27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2278,7 +2281,7 @@
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28">
         <v>2.63</v>
@@ -2311,19 +2314,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2340,7 +2343,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29">
         <v>2.63</v>
@@ -2373,19 +2376,19 @@
         <v>5565177.69684</v>
       </c>
       <c r="R29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2402,7 +2405,7 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F30">
         <v>0.525</v>
@@ -2435,19 +2438,902 @@
         <v>5565177.69684</v>
       </c>
       <c r="R30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31">
+        <v>0.004</v>
+      </c>
+      <c r="G31">
+        <v>0.565409090909091</v>
+      </c>
+      <c r="H31">
+        <v>5.9337</v>
+      </c>
+      <c r="I31">
+        <v>5.23312</v>
+      </c>
+      <c r="L31">
+        <v>0.19945</v>
+      </c>
+      <c r="M31">
+        <v>0.20949</v>
+      </c>
+      <c r="N31">
+        <v>0.26558</v>
+      </c>
+      <c r="O31">
+        <v>2.89077</v>
+      </c>
+      <c r="P31">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q31">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R31" t="s">
+        <v>47</v>
+      </c>
+      <c r="S31" t="s">
+        <v>48</v>
+      </c>
+      <c r="T31" t="s">
+        <v>49</v>
+      </c>
+      <c r="U31" t="s">
+        <v>50</v>
+      </c>
+      <c r="V31" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32">
+        <v>3.45</v>
+      </c>
+      <c r="G32">
+        <v>13.530853177116</v>
+      </c>
+      <c r="H32">
+        <v>76</v>
+      </c>
+      <c r="I32">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L32">
+        <v>13.1</v>
+      </c>
+      <c r="M32">
+        <v>26.3</v>
+      </c>
+      <c r="N32">
+        <v>31.88</v>
+      </c>
+      <c r="O32">
+        <v>57.24</v>
+      </c>
+      <c r="P32">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q32">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R32" t="s">
+        <v>47</v>
+      </c>
+      <c r="S32" t="s">
+        <v>48</v>
+      </c>
+      <c r="T32" t="s">
+        <v>49</v>
+      </c>
+      <c r="U32" t="s">
+        <v>50</v>
+      </c>
+      <c r="V32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33">
+        <v>3.45</v>
+      </c>
+      <c r="G33">
+        <v>13.530853177116</v>
+      </c>
+      <c r="H33">
+        <v>76</v>
+      </c>
+      <c r="I33">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L33">
+        <v>13.1</v>
+      </c>
+      <c r="M33">
+        <v>26.3</v>
+      </c>
+      <c r="N33">
+        <v>31.88</v>
+      </c>
+      <c r="O33">
+        <v>57.24</v>
+      </c>
+      <c r="P33">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q33">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R33" t="s">
+        <v>47</v>
+      </c>
+      <c r="S33" t="s">
+        <v>48</v>
+      </c>
+      <c r="T33" t="s">
+        <v>49</v>
+      </c>
+      <c r="U33" t="s">
+        <v>50</v>
+      </c>
+      <c r="V33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34">
+        <v>53.6</v>
+      </c>
+      <c r="G34">
+        <v>499.987346835661</v>
+      </c>
+      <c r="H34">
+        <v>6931.6</v>
+      </c>
+      <c r="I34">
+        <v>3716.72</v>
+      </c>
+      <c r="J34">
+        <v>14.7058823529412</v>
+      </c>
+      <c r="K34">
+        <v>29.4117647058824</v>
+      </c>
+      <c r="L34">
+        <v>20.9</v>
+      </c>
+      <c r="M34">
+        <v>367.2</v>
+      </c>
+      <c r="N34">
+        <v>452.736</v>
+      </c>
+      <c r="O34">
+        <v>1590.432</v>
+      </c>
+      <c r="P34">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q34">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R34" t="s">
+        <v>47</v>
+      </c>
+      <c r="S34" t="s">
+        <v>48</v>
+      </c>
+      <c r="T34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U34" t="s">
+        <v>50</v>
+      </c>
+      <c r="V34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35">
+        <v>53.6</v>
+      </c>
+      <c r="G35">
+        <v>499.987346835661</v>
+      </c>
+      <c r="H35">
+        <v>6931.6</v>
+      </c>
+      <c r="I35">
+        <v>3716.72</v>
+      </c>
+      <c r="J35">
+        <v>14.7058823529412</v>
+      </c>
+      <c r="K35">
+        <v>29.4117647058824</v>
+      </c>
+      <c r="L35">
+        <v>20.9</v>
+      </c>
+      <c r="M35">
+        <v>367.2</v>
+      </c>
+      <c r="N35">
+        <v>452.736</v>
+      </c>
+      <c r="O35">
+        <v>1590.432</v>
+      </c>
+      <c r="P35">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q35">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S35" t="s">
+        <v>48</v>
+      </c>
+      <c r="T35" t="s">
+        <v>49</v>
+      </c>
+      <c r="U35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36">
+        <v>53.6</v>
+      </c>
+      <c r="G36">
+        <v>499.987346835661</v>
+      </c>
+      <c r="H36">
+        <v>6931.6</v>
+      </c>
+      <c r="I36">
+        <v>3716.72</v>
+      </c>
+      <c r="J36">
+        <v>14.7058823529412</v>
+      </c>
+      <c r="K36">
+        <v>29.4117647058824</v>
+      </c>
+      <c r="L36">
+        <v>20.9</v>
+      </c>
+      <c r="M36">
+        <v>367.2</v>
+      </c>
+      <c r="N36">
+        <v>452.736</v>
+      </c>
+      <c r="O36">
+        <v>1590.432</v>
+      </c>
+      <c r="P36">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q36">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R36" t="s">
+        <v>47</v>
+      </c>
+      <c r="S36" t="s">
+        <v>48</v>
+      </c>
+      <c r="T36" t="s">
+        <v>49</v>
+      </c>
+      <c r="U36" t="s">
+        <v>50</v>
+      </c>
+      <c r="V36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37">
+        <v>53.6</v>
+      </c>
+      <c r="G37">
+        <v>499.987346835661</v>
+      </c>
+      <c r="H37">
+        <v>6931.6</v>
+      </c>
+      <c r="I37">
+        <v>3716.72</v>
+      </c>
+      <c r="J37">
+        <v>14.7058823529412</v>
+      </c>
+      <c r="K37">
+        <v>29.4117647058824</v>
+      </c>
+      <c r="L37">
+        <v>20.9</v>
+      </c>
+      <c r="M37">
+        <v>367.2</v>
+      </c>
+      <c r="N37">
+        <v>452.736</v>
+      </c>
+      <c r="O37">
+        <v>1590.432</v>
+      </c>
+      <c r="P37">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q37">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R37" t="s">
+        <v>47</v>
+      </c>
+      <c r="S37" t="s">
+        <v>48</v>
+      </c>
+      <c r="T37" t="s">
+        <v>49</v>
+      </c>
+      <c r="U37" t="s">
+        <v>50</v>
+      </c>
+      <c r="V37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38">
+        <v>0.32917</v>
+      </c>
+      <c r="G38">
+        <v>0.396274302702844</v>
+      </c>
+      <c r="H38">
+        <v>1.07405889950003</v>
+      </c>
+      <c r="I38">
+        <v>1.04239</v>
+      </c>
+      <c r="L38">
+        <v>0.18858</v>
+      </c>
+      <c r="M38">
+        <v>0.62314</v>
+      </c>
+      <c r="N38">
+        <v>0.68825</v>
+      </c>
+      <c r="O38">
+        <v>1.01102</v>
+      </c>
+      <c r="P38">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q38">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R38" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38" t="s">
+        <v>48</v>
+      </c>
+      <c r="T38" t="s">
+        <v>49</v>
+      </c>
+      <c r="U38" t="s">
+        <v>50</v>
+      </c>
+      <c r="V38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39">
+        <v>0.32917</v>
+      </c>
+      <c r="G39">
+        <v>0.396274302702844</v>
+      </c>
+      <c r="H39">
+        <v>1.07405889950003</v>
+      </c>
+      <c r="I39">
+        <v>1.04239</v>
+      </c>
+      <c r="L39">
+        <v>0.18858</v>
+      </c>
+      <c r="M39">
+        <v>0.62314</v>
+      </c>
+      <c r="N39">
+        <v>0.68825</v>
+      </c>
+      <c r="O39">
+        <v>1.01102</v>
+      </c>
+      <c r="P39">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q39">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" t="s">
+        <v>48</v>
+      </c>
+      <c r="T39" t="s">
+        <v>49</v>
+      </c>
+      <c r="U39" t="s">
+        <v>50</v>
+      </c>
+      <c r="V39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40">
+        <v>0.2665</v>
+      </c>
+      <c r="G40">
+        <v>0.326077356610177</v>
+      </c>
+      <c r="H40">
+        <v>2.21</v>
+      </c>
+      <c r="I40">
+        <v>0.8452</v>
+      </c>
+      <c r="L40">
+        <v>0.058</v>
+      </c>
+      <c r="M40">
+        <v>0.4408</v>
+      </c>
+      <c r="N40">
+        <v>0.4756</v>
+      </c>
+      <c r="O40">
+        <v>0.77092</v>
+      </c>
+      <c r="P40">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q40">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R40" t="s">
+        <v>47</v>
+      </c>
+      <c r="S40" t="s">
+        <v>48</v>
+      </c>
+      <c r="T40" t="s">
+        <v>49</v>
+      </c>
+      <c r="U40" t="s">
+        <v>50</v>
+      </c>
+      <c r="V40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41">
+        <v>7.27</v>
+      </c>
+      <c r="G41">
+        <v>7.46242424242424</v>
+      </c>
+      <c r="H41">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="I41">
+        <v>8.956</v>
+      </c>
+      <c r="L41">
+        <v>7.455</v>
+      </c>
+      <c r="M41">
+        <v>7.965</v>
+      </c>
+      <c r="N41">
+        <v>8.095700000000001</v>
+      </c>
+      <c r="O41">
+        <v>8.295999999999999</v>
+      </c>
+      <c r="P41">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q41">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R41" t="s">
+        <v>47</v>
+      </c>
+      <c r="S41" t="s">
+        <v>48</v>
+      </c>
+      <c r="T41" t="s">
+        <v>49</v>
+      </c>
+      <c r="U41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42">
+        <v>2.855</v>
+      </c>
+      <c r="G42">
+        <v>2.92176470588235</v>
+      </c>
+      <c r="H42">
+        <v>5.79</v>
+      </c>
+      <c r="I42">
+        <v>3.978</v>
+      </c>
+      <c r="L42">
+        <v>2.585</v>
+      </c>
+      <c r="M42">
+        <v>3.297</v>
+      </c>
+      <c r="N42">
+        <v>3.3144</v>
+      </c>
+      <c r="O42">
+        <v>3.7256</v>
+      </c>
+      <c r="P42">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q42">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S42" t="s">
+        <v>48</v>
+      </c>
+      <c r="T42" t="s">
+        <v>49</v>
+      </c>
+      <c r="U42" t="s">
+        <v>50</v>
+      </c>
+      <c r="V42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43">
+        <v>2.855</v>
+      </c>
+      <c r="G43">
+        <v>2.92176470588235</v>
+      </c>
+      <c r="H43">
+        <v>5.79</v>
+      </c>
+      <c r="I43">
+        <v>3.978</v>
+      </c>
+      <c r="L43">
+        <v>2.585</v>
+      </c>
+      <c r="M43">
+        <v>3.297</v>
+      </c>
+      <c r="N43">
+        <v>3.3144</v>
+      </c>
+      <c r="O43">
+        <v>3.7256</v>
+      </c>
+      <c r="P43">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q43">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R43" t="s">
+        <v>47</v>
+      </c>
+      <c r="S43" t="s">
+        <v>48</v>
+      </c>
+      <c r="T43" t="s">
+        <v>49</v>
+      </c>
+      <c r="U43" t="s">
+        <v>50</v>
+      </c>
+      <c r="V43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44">
+        <v>0.4625</v>
+      </c>
+      <c r="G44">
+        <v>0.5054999999999999</v>
+      </c>
+      <c r="H44">
+        <v>1.13</v>
+      </c>
+      <c r="I44">
+        <v>1.0198</v>
+      </c>
+      <c r="L44">
+        <v>0.6725</v>
+      </c>
+      <c r="M44">
+        <v>0.7053</v>
+      </c>
+      <c r="N44">
+        <v>0.73548</v>
+      </c>
+      <c r="O44">
+        <v>0.8568</v>
+      </c>
+      <c r="P44">
+        <v>1783978.1189</v>
+      </c>
+      <c r="Q44">
+        <v>5565177.69684</v>
+      </c>
+      <c r="R44" t="s">
+        <v>47</v>
+      </c>
+      <c r="S44" t="s">
+        <v>48</v>
+      </c>
+      <c r="T44" t="s">
+        <v>49</v>
+      </c>
+      <c r="U44" t="s">
+        <v>50</v>
+      </c>
+      <c r="V44" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
